--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iflightneo_github\Iflightneo_github\iFlightNeo\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iflightneo_latest2\iFlightNeo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8410305-038C-4B48-8675-ECAE0820F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E00F82-2D25-4798-90C9-B64E862F05CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="225">
   <si>
     <t>ScriptName</t>
   </si>
@@ -962,6 +962,18 @@
   </si>
   <si>
     <t>26-Mar-2022</t>
+  </si>
+  <si>
+    <t>NeoOps_AAF_TC057</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>08-Apr-2022</t>
+  </si>
+  <si>
+    <t>3018,3000</t>
   </si>
 </sst>
 </file>
@@ -1600,13 +1612,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XCA53"/>
+  <dimension ref="A1:XCA54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,7 +5345,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>182</v>
       </c>
@@ -5359,7 +5371,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>184</v>
       </c>
@@ -5385,7 +5397,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>186</v>
       </c>
@@ -5411,7 +5423,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>187</v>
       </c>
@@ -5434,7 +5446,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>217</v>
       </c>
@@ -5523,13 +5535,114 @@
         <v>38</v>
       </c>
       <c r="AD53" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG54" s="23" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D29 C2:C30 C39 C53:D53" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D29 C2:C30 C39 C53:D54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Chrome,Firefox,Edge"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5626,10 +5739,12 @@
     <hyperlink ref="F23" r:id="rId90" xr:uid="{45923769-6036-4C93-BCBE-4D0631E2641F}"/>
     <hyperlink ref="D53" r:id="rId91" xr:uid="{9839F7FC-A6C1-4676-9868-427ADBC15587}"/>
     <hyperlink ref="F53" r:id="rId92" xr:uid="{02DC16D4-2D65-4CA8-9EC3-66B1413BCC6F}"/>
+    <hyperlink ref="D54" r:id="rId93" xr:uid="{1FE02F76-38A2-4C68-BFC0-D7E12E9BD098}"/>
+    <hyperlink ref="F54" r:id="rId94" xr:uid="{FF6B35B6-95FF-45AB-BB83-9500D566875E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
-  <legacyDrawing r:id="rId94"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
+  <legacyDrawing r:id="rId96"/>
 </worksheet>
 </file>
 

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iflightneo_latest2\iFlightNeo\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAKRITESHSAHA\Desktop\backup\ibm doc\iNeoAutomation\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E00F82-2D25-4798-90C9-B64E862F05CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434E7AC-F986-40EA-B8FF-2E71B62FD9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" state="hidden" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="228">
   <si>
     <t>ScriptName</t>
   </si>
@@ -975,12 +975,21 @@
   <si>
     <t>3018,3000</t>
   </si>
+  <si>
+    <t>NeoOps_AAFNew_TC001</t>
+  </si>
+  <si>
+    <t>mitesh</t>
+  </si>
+  <si>
+    <t>NeoOps_SAW_NewTC001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,6 +1031,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1078,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,6 +1141,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1515,15 +1533,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1551,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1575,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1612,49 +1630,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XCA54"/>
+  <dimension ref="A1:XCA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="4"/>
+    <col min="16" max="17" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1767,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -1933,7 +1951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2209,7 +2227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2393,7 +2411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -2485,7 +2503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2577,7 +2595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2761,7 +2779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -2853,7 +2871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2945,7 +2963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -3037,7 +3055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3129,7 +3147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -3405,7 +3423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -3497,7 +3515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:31 16303:16303" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31 16303:16303" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -3589,7 +3607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -3685,7 +3703,7 @@
       </c>
       <c r="XCA22" s="18"/>
     </row>
-    <row r="23" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>118</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>119</v>
       </c>
@@ -3961,7 +3979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
@@ -4053,7 +4071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>121</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>122</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>132</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>137</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>138</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:31 16303:16303" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>139</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>141</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>148</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>151</v>
       </c>
@@ -4973,7 +4991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>156</v>
       </c>
@@ -4999,7 +5017,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>158</v>
       </c>
@@ -5025,7 +5043,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>161</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>163</v>
       </c>
@@ -5143,7 +5161,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>165</v>
       </c>
@@ -5169,7 +5187,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>167</v>
       </c>
@@ -5195,7 +5213,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>168</v>
       </c>
@@ -5221,7 +5239,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>171</v>
       </c>
@@ -5244,7 +5262,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>173</v>
       </c>
@@ -5270,7 +5288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>174</v>
       </c>
@@ -5296,7 +5314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>177</v>
       </c>
@@ -5319,7 +5337,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>179</v>
       </c>
@@ -5345,7 +5363,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>182</v>
       </c>
@@ -5371,7 +5389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>184</v>
       </c>
@@ -5397,7 +5415,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>186</v>
       </c>
@@ -5423,7 +5441,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>187</v>
       </c>
@@ -5446,7 +5464,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="s">
         <v>217</v>
       </c>
@@ -5538,7 +5556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>222</v>
       </c>
@@ -5636,6 +5654,46 @@
         <v>38</v>
       </c>
       <c r="AG54" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B55" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B56" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5741,10 +5799,14 @@
     <hyperlink ref="F53" r:id="rId92" xr:uid="{02DC16D4-2D65-4CA8-9EC3-66B1413BCC6F}"/>
     <hyperlink ref="D54" r:id="rId93" xr:uid="{1FE02F76-38A2-4C68-BFC0-D7E12E9BD098}"/>
     <hyperlink ref="F54" r:id="rId94" xr:uid="{FF6B35B6-95FF-45AB-BB83-9500D566875E}"/>
+    <hyperlink ref="D55" r:id="rId95" xr:uid="{A7F74908-AA10-46CC-841A-9D7BDD772A19}"/>
+    <hyperlink ref="F55" r:id="rId96" xr:uid="{FBFC46FD-A18A-4C7C-9CCC-FEA286EA9FAF}"/>
+    <hyperlink ref="D56" r:id="rId97" xr:uid="{7218F08C-5349-4192-9B84-1C4525410B72}"/>
+    <hyperlink ref="F56" r:id="rId98" xr:uid="{6860CB4E-5135-4781-A8A6-B71307348B25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
-  <legacyDrawing r:id="rId96"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
+  <legacyDrawing r:id="rId100"/>
 </worksheet>
 </file>
 
@@ -5756,12 +5818,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
@@ -5769,7 +5831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5777,7 +5839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5785,7 +5847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5793,7 +5855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5801,7 +5863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAKRITESHSAHA\Desktop\backup\ibm doc\iNeoAutomation\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434E7AC-F986-40EA-B8FF-2E71B62FD9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DCBD0-DFED-4838-8F05-AFB8E86DCAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" state="hidden" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="235">
   <si>
     <t>ScriptName</t>
   </si>
@@ -983,6 +983,27 @@
   </si>
   <si>
     <t>NeoOps_SAW_NewTC001</t>
+  </si>
+  <si>
+    <t>NeoOps_userrole_TC001</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>UserToEdit</t>
+  </si>
+  <si>
+    <t>UserToEditPassword</t>
+  </si>
+  <si>
+    <t>0035</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,6 +1165,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1630,13 +1652,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XCA56"/>
+  <dimension ref="A1:XCA57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomRight" activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1672,7 +1694,7 @@
     <col min="31" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1766,8 +1788,14 @@
       <c r="AE1" s="17" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF1" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1859,7 +1887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -1951,7 +1979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2043,7 +2071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2135,7 +2163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2227,7 +2255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2319,7 +2347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2411,7 +2439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -2503,7 +2531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2595,7 +2623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -2687,7 +2715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2779,7 +2807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -2871,7 +2899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2963,7 +2991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -3055,7 +3083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -5658,6 +5686,9 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A55" s="24" t="s">
+        <v>229</v>
+      </c>
       <c r="B55" s="23" t="s">
         <v>225</v>
       </c>
@@ -5678,6 +5709,9 @@
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A56" s="24" t="s">
+        <v>230</v>
+      </c>
       <c r="B56" s="27" t="s">
         <v>227</v>
       </c>
@@ -5695,6 +5729,107 @@
       </c>
       <c r="G56" s="23" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A57" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF57" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG57" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5803,10 +5938,13 @@
     <hyperlink ref="F55" r:id="rId96" xr:uid="{FBFC46FD-A18A-4C7C-9CCC-FEA286EA9FAF}"/>
     <hyperlink ref="D56" r:id="rId97" xr:uid="{7218F08C-5349-4192-9B84-1C4525410B72}"/>
     <hyperlink ref="F56" r:id="rId98" xr:uid="{6860CB4E-5135-4781-A8A6-B71307348B25}"/>
+    <hyperlink ref="D57" r:id="rId99" xr:uid="{11BD292B-F200-4C35-871D-99EA67C5B0F4}"/>
+    <hyperlink ref="F57" r:id="rId100" xr:uid="{93A55736-78A0-4B06-A697-CBC0E22C42B1}"/>
+    <hyperlink ref="AG57" r:id="rId101" xr:uid="{77567727-A599-44A8-88BF-755395C76C73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
-  <legacyDrawing r:id="rId100"/>
+  <pageSetup orientation="portrait" r:id="rId102"/>
+  <legacyDrawing r:id="rId103"/>
 </worksheet>
 </file>
 

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAKRITESHSAHA\Desktop\backup\ibm doc\iNeoAutomation\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DCBD0-DFED-4838-8F05-AFB8E86DCAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F039C5AA-B40D-4CF0-8F90-76E53BD36039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="237">
   <si>
     <t>ScriptName</t>
   </si>
@@ -1004,6 +1004,12 @@
   </si>
   <si>
     <t>0035</t>
+  </si>
+  <si>
+    <t>NeoOps_MTCE_TC035</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -1652,13 +1658,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XCA57"/>
+  <dimension ref="A1:XCA58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA49" sqref="AA49"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5829,6 +5835,26 @@
         <v>234</v>
       </c>
       <c r="AG57" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A58" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="26" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5941,10 +5967,12 @@
     <hyperlink ref="D57" r:id="rId99" xr:uid="{11BD292B-F200-4C35-871D-99EA67C5B0F4}"/>
     <hyperlink ref="F57" r:id="rId100" xr:uid="{93A55736-78A0-4B06-A697-CBC0E22C42B1}"/>
     <hyperlink ref="AG57" r:id="rId101" xr:uid="{77567727-A599-44A8-88BF-755395C76C73}"/>
+    <hyperlink ref="D58" r:id="rId102" xr:uid="{8FE30708-40A1-4FA3-8529-A68CAAD5FDE5}"/>
+    <hyperlink ref="F58" r:id="rId103" xr:uid="{6ACDF955-2EDC-4B4F-8A70-1A1DFA9C0E2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId102"/>
-  <legacyDrawing r:id="rId103"/>
+  <pageSetup orientation="portrait" r:id="rId104"/>
+  <legacyDrawing r:id="rId105"/>
 </worksheet>
 </file>
 

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAKRITESHSAHA\Desktop\backup\ibm doc\iNeoAutomation\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F039C5AA-B40D-4CF0-8F90-76E53BD36039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA04786-2430-41D7-BA3A-538CB75C8142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="238">
   <si>
     <t>ScriptName</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t>57</t>
+  </si>
+  <si>
+    <t>NeoOps_MTCE_TC029</t>
   </si>
 </sst>
 </file>
@@ -1658,13 +1661,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XCA58"/>
+  <dimension ref="A1:XCA59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58:F58"/>
+      <selection pane="bottomRight" activeCell="Z59" sqref="Z59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5855,6 +5858,26 @@
         <v>226</v>
       </c>
       <c r="F58" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="26" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5969,10 +5992,12 @@
     <hyperlink ref="AG57" r:id="rId101" xr:uid="{77567727-A599-44A8-88BF-755395C76C73}"/>
     <hyperlink ref="D58" r:id="rId102" xr:uid="{8FE30708-40A1-4FA3-8529-A68CAAD5FDE5}"/>
     <hyperlink ref="F58" r:id="rId103" xr:uid="{6ACDF955-2EDC-4B4F-8A70-1A1DFA9C0E2E}"/>
+    <hyperlink ref="D59" r:id="rId104" xr:uid="{120286D3-D149-4C9A-8451-89A17283F310}"/>
+    <hyperlink ref="F59" r:id="rId105" xr:uid="{6F257F5D-DBD5-4854-AEAC-AD492B7DCE0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId104"/>
-  <legacyDrawing r:id="rId105"/>
+  <pageSetup orientation="portrait" r:id="rId106"/>
+  <legacyDrawing r:id="rId107"/>
 </worksheet>
 </file>
 

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAKRITESHSAHA\Desktop\backup\ibm doc\iNeoAutomation\iFlightNeov28Mar\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0903B8744\git\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA04786-2430-41D7-BA3A-538CB75C8142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39710CB4-4BC5-488F-85DA-3FEFA34A736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" state="hidden" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="240">
   <si>
     <t>ScriptName</t>
   </si>
@@ -376,12 +376,6 @@
   </si>
   <si>
     <t>Etops</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>180</t>
@@ -1013,6 +1007,18 @@
   </si>
   <si>
     <t>NeoOps_MTCE_TC029</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>NeoOps_AAF_TCNew_003</t>
+  </si>
+  <si>
+    <t>3020</t>
+  </si>
+  <si>
+    <t>27-APR-2022</t>
   </si>
 </sst>
 </file>
@@ -1564,15 +1570,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1661,57 +1667,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XCA59"/>
+  <dimension ref="A1:XBY60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z59" sqref="Z59"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="4"/>
+    <col min="16" max="17" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -1726,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
@@ -1735,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>17</v>
@@ -1747,10 +1751,10 @@
         <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>20</v>
@@ -1759,84 +1763,78 @@
         <v>27</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="Z1" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
+        <v>99</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG1" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>209</v>
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>21</v>
@@ -1854,4031 +1852,3892 @@
         <v>25</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="V2" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="X11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="18" t="s">
+      <c r="Y11" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="X11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y11" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="Z11" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA12" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD12" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA13" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD13" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>93</v>
-      </c>
       <c r="D14" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD14" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA15" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD15" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA16" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD16" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD17" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA18" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD18" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD20" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31 16303:16303" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29 16301:16301" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA21" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD21" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA22" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="XCA22" s="18"/>
-    </row>
-    <row r="23" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="XBY22" s="18"/>
+    </row>
+    <row r="23" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA23" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD23" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B26" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="U24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="X24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD24" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="C26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB26" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="U25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="X25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD25" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="C27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="U26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="X26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD26" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="B28" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="U27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="X27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD27" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="C28" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="H28" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD28" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA29" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD29" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB31" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD30" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD31" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31 16303:16303" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="C32" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB32" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B33" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD32" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="C33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB33" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD33" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="C34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB34" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB35" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD34" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD35" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="H36" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB36" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD36" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
+      <c r="C37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" s="23" t="s">
+      <c r="C38" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="H39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB39" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K41" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="23" t="s">
+    <row r="42" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K49" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="L39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="V39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD39" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="K40" s="23" t="s">
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K51" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A44" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K45" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G49" s="4" t="s">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="K49" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G50" s="23" t="s">
+    </row>
+    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="K50" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="24" t="s">
+      <c r="G53" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="H53" s="23" t="s">
         <v>218</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>220</v>
       </c>
       <c r="I53" s="23" t="s">
         <v>16</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA53" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB53" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC53" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD53" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>223</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD54" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE54" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF54" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG54" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="23" t="s">
+      <c r="B57" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A56" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A57" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="C57" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB57" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC57" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD57" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE57" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF57" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD57" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE57" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="AG57" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A58" s="24" t="s">
+      <c r="B58" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B59" s="27" t="s">
+      <c r="B60" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>209</v>
+      <c r="C60" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE60" s="23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5977,27 +5836,29 @@
     <hyperlink ref="F5" r:id="rId86" xr:uid="{95DD6FFE-5083-4CD6-B3B6-54164BE04A04}"/>
     <hyperlink ref="F4" r:id="rId87" xr:uid="{DD5CEE01-DD74-4FEC-A8D1-911E7AF54A6C}"/>
     <hyperlink ref="F3" r:id="rId88" xr:uid="{49F0276C-7662-4B4D-AD91-C6C3781E42F4}"/>
-    <hyperlink ref="F2" r:id="rId89" display="Etihad@1235" xr:uid="{ACF1577D-E4F9-480B-B0E3-565D99DFBAB1}"/>
-    <hyperlink ref="F23" r:id="rId90" xr:uid="{45923769-6036-4C93-BCBE-4D0631E2641F}"/>
-    <hyperlink ref="D53" r:id="rId91" xr:uid="{9839F7FC-A6C1-4676-9868-427ADBC15587}"/>
-    <hyperlink ref="F53" r:id="rId92" xr:uid="{02DC16D4-2D65-4CA8-9EC3-66B1413BCC6F}"/>
-    <hyperlink ref="D54" r:id="rId93" xr:uid="{1FE02F76-38A2-4C68-BFC0-D7E12E9BD098}"/>
-    <hyperlink ref="F54" r:id="rId94" xr:uid="{FF6B35B6-95FF-45AB-BB83-9500D566875E}"/>
-    <hyperlink ref="D55" r:id="rId95" xr:uid="{A7F74908-AA10-46CC-841A-9D7BDD772A19}"/>
-    <hyperlink ref="F55" r:id="rId96" xr:uid="{FBFC46FD-A18A-4C7C-9CCC-FEA286EA9FAF}"/>
-    <hyperlink ref="D56" r:id="rId97" xr:uid="{7218F08C-5349-4192-9B84-1C4525410B72}"/>
-    <hyperlink ref="F56" r:id="rId98" xr:uid="{6860CB4E-5135-4781-A8A6-B71307348B25}"/>
-    <hyperlink ref="D57" r:id="rId99" xr:uid="{11BD292B-F200-4C35-871D-99EA67C5B0F4}"/>
-    <hyperlink ref="F57" r:id="rId100" xr:uid="{93A55736-78A0-4B06-A697-CBC0E22C42B1}"/>
-    <hyperlink ref="AG57" r:id="rId101" xr:uid="{77567727-A599-44A8-88BF-755395C76C73}"/>
-    <hyperlink ref="D58" r:id="rId102" xr:uid="{8FE30708-40A1-4FA3-8529-A68CAAD5FDE5}"/>
-    <hyperlink ref="F58" r:id="rId103" xr:uid="{6ACDF955-2EDC-4B4F-8A70-1A1DFA9C0E2E}"/>
-    <hyperlink ref="D59" r:id="rId104" xr:uid="{120286D3-D149-4C9A-8451-89A17283F310}"/>
-    <hyperlink ref="F59" r:id="rId105" xr:uid="{6F257F5D-DBD5-4854-AEAC-AD492B7DCE0E}"/>
+    <hyperlink ref="F23" r:id="rId89" xr:uid="{45923769-6036-4C93-BCBE-4D0631E2641F}"/>
+    <hyperlink ref="D53" r:id="rId90" xr:uid="{9839F7FC-A6C1-4676-9868-427ADBC15587}"/>
+    <hyperlink ref="F53" r:id="rId91" xr:uid="{02DC16D4-2D65-4CA8-9EC3-66B1413BCC6F}"/>
+    <hyperlink ref="D54" r:id="rId92" xr:uid="{1FE02F76-38A2-4C68-BFC0-D7E12E9BD098}"/>
+    <hyperlink ref="F54" r:id="rId93" xr:uid="{FF6B35B6-95FF-45AB-BB83-9500D566875E}"/>
+    <hyperlink ref="D55" r:id="rId94" xr:uid="{A7F74908-AA10-46CC-841A-9D7BDD772A19}"/>
+    <hyperlink ref="F55" r:id="rId95" xr:uid="{FBFC46FD-A18A-4C7C-9CCC-FEA286EA9FAF}"/>
+    <hyperlink ref="D56" r:id="rId96" xr:uid="{7218F08C-5349-4192-9B84-1C4525410B72}"/>
+    <hyperlink ref="F56" r:id="rId97" xr:uid="{6860CB4E-5135-4781-A8A6-B71307348B25}"/>
+    <hyperlink ref="D57" r:id="rId98" xr:uid="{11BD292B-F200-4C35-871D-99EA67C5B0F4}"/>
+    <hyperlink ref="F57" r:id="rId99" xr:uid="{93A55736-78A0-4B06-A697-CBC0E22C42B1}"/>
+    <hyperlink ref="AE57" r:id="rId100" xr:uid="{77567727-A599-44A8-88BF-755395C76C73}"/>
+    <hyperlink ref="D58" r:id="rId101" xr:uid="{8FE30708-40A1-4FA3-8529-A68CAAD5FDE5}"/>
+    <hyperlink ref="F58" r:id="rId102" xr:uid="{6ACDF955-2EDC-4B4F-8A70-1A1DFA9C0E2E}"/>
+    <hyperlink ref="D59" r:id="rId103" xr:uid="{120286D3-D149-4C9A-8451-89A17283F310}"/>
+    <hyperlink ref="F59" r:id="rId104" xr:uid="{6F257F5D-DBD5-4854-AEAC-AD492B7DCE0E}"/>
+    <hyperlink ref="F2" r:id="rId105" xr:uid="{A8BB6E5D-8390-40F2-8772-3EA954EA0ABE}"/>
+    <hyperlink ref="D60" r:id="rId106" xr:uid="{6075BFD9-4E86-4C62-A3AD-6620E918FA1F}"/>
+    <hyperlink ref="F60" r:id="rId107" xr:uid="{E194B2DB-6EFD-48A3-9473-F4086CDFA5A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId106"/>
-  <legacyDrawing r:id="rId107"/>
+  <pageSetup orientation="portrait" r:id="rId108"/>
+  <legacyDrawing r:id="rId109"/>
 </worksheet>
 </file>
 
@@ -6009,57 +5870,57 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0903B8744\git\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39710CB4-4BC5-488F-85DA-3FEFA34A736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB24B07-762D-4D38-88F3-3D4A213A3EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" state="hidden" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="243">
   <si>
     <t>ScriptName</t>
   </si>
@@ -1019,6 +1019,15 @@
   </si>
   <si>
     <t>27-APR-2022</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>NeoOps_AAFNew_TC003</t>
+  </si>
+  <si>
+    <t>A6-EIA</t>
   </si>
 </sst>
 </file>
@@ -1570,15 +1579,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1667,47 +1676,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XBY60"/>
+  <dimension ref="A1:XBY61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="4"/>
+    <col min="16" max="17" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2748,7 +2757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -2834,7 +2843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -3178,7 +3187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -3436,7 +3445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29 16301:16301" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29 16301:16301" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -3612,7 +3621,7 @@
       </c>
       <c r="XBY22" s="18"/>
     </row>
-    <row r="23" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -3698,7 +3707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>116</v>
       </c>
@@ -3784,7 +3793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>117</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>119</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>120</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
@@ -4214,7 +4223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>135</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>136</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>139</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
@@ -4644,7 +4653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>146</v>
       </c>
@@ -4730,7 +4739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>149</v>
       </c>
@@ -4816,7 +4825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>154</v>
       </c>
@@ -4842,7 +4851,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>156</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>159</v>
       </c>
@@ -4954,7 +4963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>161</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>163</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>165</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>166</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>169</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>171</v>
       </c>
@@ -5107,7 +5116,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>172</v>
       </c>
@@ -5133,7 +5142,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>175</v>
       </c>
@@ -5156,7 +5165,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>177</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>180</v>
       </c>
@@ -5208,7 +5217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>182</v>
       </c>
@@ -5234,7 +5243,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>184</v>
       </c>
@@ -5260,7 +5269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>185</v>
       </c>
@@ -5283,7 +5292,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="s">
         <v>215</v>
       </c>
@@ -5369,7 +5378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>220</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>227</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>228</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>229</v>
       </c>
@@ -5605,7 +5614,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>234</v>
       </c>
@@ -5625,7 +5634,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>234</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>236</v>
       </c>
@@ -5738,6 +5747,29 @@
       </c>
       <c r="AE60" s="23" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5855,10 +5887,12 @@
     <hyperlink ref="F2" r:id="rId105" xr:uid="{A8BB6E5D-8390-40F2-8772-3EA954EA0ABE}"/>
     <hyperlink ref="D60" r:id="rId106" xr:uid="{6075BFD9-4E86-4C62-A3AD-6620E918FA1F}"/>
     <hyperlink ref="F60" r:id="rId107" xr:uid="{E194B2DB-6EFD-48A3-9473-F4086CDFA5A2}"/>
+    <hyperlink ref="D61" r:id="rId108" xr:uid="{2F110421-62BB-4444-A0C7-5FBACDAB68E8}"/>
+    <hyperlink ref="F61" r:id="rId109" xr:uid="{484A11BA-2E64-4A70-8796-E3CF384AF556}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId108"/>
-  <legacyDrawing r:id="rId109"/>
+  <pageSetup orientation="portrait" r:id="rId110"/>
+  <legacyDrawing r:id="rId111"/>
 </worksheet>
 </file>
 
@@ -5870,12 +5904,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
@@ -5883,7 +5917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5891,7 +5925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5899,7 +5933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5907,7 +5941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5915,7 +5949,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0903B8744\git\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB24B07-762D-4D38-88F3-3D4A213A3EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E641A37-526C-4504-A430-986159AD5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1679,10 +1679,10 @@
   <dimension ref="A1:XBY61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0903B8744\git\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E641A37-526C-4504-A430-986159AD5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41035B91-CE02-407F-A163-E8DFEE9E6C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" state="hidden" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="248">
   <si>
     <t>ScriptName</t>
   </si>
@@ -1028,6 +1028,21 @@
   </si>
   <si>
     <t>A6-EIA</t>
+  </si>
+  <si>
+    <t>NeoOps_RND_TC065_1</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>32D</t>
+  </si>
+  <si>
+    <t>06-MAY-2022</t>
+  </si>
+  <si>
+    <t>3000</t>
   </si>
 </sst>
 </file>
@@ -1676,13 +1691,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XBY61"/>
+  <dimension ref="A1:XBY63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5771,6 +5786,47 @@
       <c r="K61" s="4" t="s">
         <v>242</v>
       </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A62" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B63" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5889,10 +5945,12 @@
     <hyperlink ref="F60" r:id="rId107" xr:uid="{E194B2DB-6EFD-48A3-9473-F4086CDFA5A2}"/>
     <hyperlink ref="D61" r:id="rId108" xr:uid="{2F110421-62BB-4444-A0C7-5FBACDAB68E8}"/>
     <hyperlink ref="F61" r:id="rId109" xr:uid="{484A11BA-2E64-4A70-8796-E3CF384AF556}"/>
+    <hyperlink ref="F62" r:id="rId110" xr:uid="{9449D44A-E5A3-43B3-9246-DB330CDCB4A1}"/>
+    <hyperlink ref="D62" r:id="rId111" xr:uid="{D34E752A-C920-41C1-93F9-D0F113DAA50D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId110"/>
-  <legacyDrawing r:id="rId111"/>
+  <pageSetup orientation="portrait" r:id="rId112"/>
+  <legacyDrawing r:id="rId113"/>
 </worksheet>
 </file>
 

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0903B8744\git\iFlightNeov28Mar\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\iFlightNeo_GitProject\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41035B91-CE02-407F-A163-E8DFEE9E6C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3953E-2030-4E3A-B850-17DC5972106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" state="hidden" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="247">
   <si>
     <t>ScriptName</t>
   </si>
@@ -880,18 +880,12 @@
     <t>A6-EJA</t>
   </si>
   <si>
-    <t>3401</t>
-  </si>
-  <si>
     <t>3402</t>
   </si>
   <si>
     <t>3403</t>
   </si>
   <si>
-    <t>3404</t>
-  </si>
-  <si>
     <t>3405</t>
   </si>
   <si>
@@ -1043,6 +1037,9 @@
   </si>
   <si>
     <t>3000</t>
+  </si>
+  <si>
+    <t>3805</t>
   </si>
 </sst>
 </file>
@@ -1594,15 +1591,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1654,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1697,41 +1694,41 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.1796875" style="4"/>
+    <col min="16" max="17" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1817,16 +1814,16 @@
         <v>99</v>
       </c>
       <c r="AC1" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1840,10 +1837,10 @@
         <v>46</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>41</v>
@@ -1912,7 +1909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -1929,7 +1926,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>60</v>
@@ -1998,7 +1995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2015,7 +2012,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>40</v>
@@ -2084,7 +2081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2101,7 +2098,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>54</v>
@@ -2170,7 +2167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>36</v>
@@ -2256,7 +2253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2273,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>50</v>
@@ -2342,7 +2339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2359,7 +2356,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>107</v>
@@ -2428,7 +2425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -2445,7 +2442,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>64</v>
@@ -2514,7 +2511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2531,7 +2528,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>58</v>
@@ -2600,7 +2597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>36</v>
@@ -2686,7 +2683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2772,7 +2769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>36</v>
@@ -2858,7 +2855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>47</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>36</v>
@@ -2944,7 +2941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>36</v>
@@ -3030,7 +3027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3047,7 +3044,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>36</v>
@@ -3116,7 +3113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -3133,7 +3130,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>36</v>
@@ -3202,7 +3199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>47</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>36</v>
@@ -3288,7 +3285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -3305,7 +3302,7 @@
         <v>47</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>36</v>
@@ -3374,7 +3371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -3391,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>101</v>
@@ -3460,7 +3457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29 16301:16301" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29 16301:16301" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>101</v>
@@ -3546,7 +3543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -3563,10 +3560,10 @@
         <v>47</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>36</v>
@@ -3575,7 +3572,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>36</v>
@@ -3632,11 +3629,11 @@
         <v>36</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="XBY22" s="18"/>
     </row>
-    <row r="23" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -3650,10 +3647,10 @@
         <v>46</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>107</v>
@@ -3722,7 +3719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>116</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>47</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>36</v>
@@ -3808,7 +3805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>117</v>
       </c>
@@ -3825,7 +3822,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>36</v>
@@ -3894,7 +3891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>118</v>
       </c>
@@ -3911,7 +3908,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>36</v>
@@ -3980,7 +3977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>119</v>
       </c>
@@ -3997,7 +3994,7 @@
         <v>47</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>36</v>
@@ -4066,7 +4063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>120</v>
       </c>
@@ -4083,7 +4080,7 @@
         <v>47</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>122</v>
@@ -4152,7 +4149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
@@ -4169,7 +4166,7 @@
         <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>129</v>
@@ -4238,7 +4235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>135</v>
       </c>
@@ -4255,10 +4252,10 @@
         <v>47</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="H30" s="23" t="s">
         <v>36</v>
@@ -4324,7 +4321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>136</v>
       </c>
@@ -4341,10 +4338,10 @@
         <v>47</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>36</v>
@@ -4410,7 +4407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:29 16301:16301" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
@@ -4427,7 +4424,7 @@
         <v>47</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>36</v>
@@ -4496,7 +4493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>139</v>
       </c>
@@ -4513,10 +4510,10 @@
         <v>47</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>36</v>
@@ -4582,7 +4579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
@@ -4599,10 +4596,10 @@
         <v>47</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>36</v>
@@ -4668,7 +4665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>146</v>
       </c>
@@ -4685,10 +4682,10 @@
         <v>47</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="H35" s="23" t="s">
         <v>36</v>
@@ -4754,7 +4751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>149</v>
       </c>
@@ -4840,7 +4837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>154</v>
       </c>
@@ -4857,16 +4854,16 @@
         <v>47</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K37" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>156</v>
       </c>
@@ -4883,16 +4880,16 @@
         <v>47</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K38" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>159</v>
       </c>
@@ -4909,10 +4906,10 @@
         <v>47</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="H39" s="23" t="s">
         <v>36</v>
@@ -4978,7 +4975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>161</v>
       </c>
@@ -4995,16 +4992,16 @@
         <v>47</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K40" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>163</v>
       </c>
@@ -5021,16 +5018,16 @@
         <v>47</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K41" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>165</v>
       </c>
@@ -5047,16 +5044,16 @@
         <v>47</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K42" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>166</v>
       </c>
@@ -5073,16 +5070,16 @@
         <v>47</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>169</v>
       </c>
@@ -5099,13 +5096,13 @@
         <v>47</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>171</v>
       </c>
@@ -5122,16 +5119,16 @@
         <v>47</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K45" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>172</v>
       </c>
@@ -5148,16 +5145,16 @@
         <v>47</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K46" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>175</v>
       </c>
@@ -5174,13 +5171,13 @@
         <v>47</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>177</v>
       </c>
@@ -5197,16 +5194,16 @@
         <v>47</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K48" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>180</v>
       </c>
@@ -5223,16 +5220,16 @@
         <v>47</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K49" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>182</v>
       </c>
@@ -5249,16 +5246,16 @@
         <v>47</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K50" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>184</v>
       </c>
@@ -5275,16 +5272,16 @@
         <v>47</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K51" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>185</v>
       </c>
@@ -5301,18 +5298,18 @@
         <v>47</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>91</v>
@@ -5324,13 +5321,13 @@
         <v>47</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I53" s="23" t="s">
         <v>16</v>
@@ -5393,12 +5390,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>91</v>
@@ -5410,19 +5407,19 @@
         <v>47</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>36</v>
@@ -5488,12 +5485,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>91</v>
@@ -5502,21 +5499,21 @@
         <v>46</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>91</v>
@@ -5525,21 +5522,21 @@
         <v>46</v>
       </c>
       <c r="E56" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A57" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>91</v>
@@ -5548,10 +5545,10 @@
         <v>46</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>36</v>
@@ -5623,18 +5620,18 @@
         <v>36</v>
       </c>
       <c r="AD57" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE57" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="AE57" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A58" s="24" t="s">
-        <v>234</v>
-      </c>
       <c r="B58" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>91</v>
@@ -5643,18 +5640,18 @@
         <v>46</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>91</v>
@@ -5663,18 +5660,18 @@
         <v>46</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>91</v>
@@ -5683,16 +5680,16 @@
         <v>46</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>16</v>
@@ -5764,12 +5761,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>91</v>
@@ -5778,21 +5775,21 @@
         <v>46</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K61" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A62" s="24" t="s">
-        <v>244</v>
-      </c>
       <c r="B62" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>91</v>
@@ -5801,31 +5798,31 @@
         <v>46</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B63" s="23"/>
     </row>
   </sheetData>
@@ -5962,12 +5959,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
@@ -5975,7 +5972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5983,7 +5980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5991,7 +5988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5999,7 +5996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6007,7 +6004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/TestData/TestData_iNeo.xlsx
+++ b/TestData/TestData_iNeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iflightneo_latest2\IFlightNeo Latest 2\iFlightNeov28Mar\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8158E0-6FC6-4846-8ADA-49C22661B9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F59CFE-BFA8-495B-ACDA-7C25841704DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestData!$A$1:$AD$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestData!$A$1:$AD$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -291,7 +291,7 @@
     requires NeoOps_INTG_TC025 for the creation of test data</t>
       </text>
     </comment>
-    <comment ref="B60" authorId="16" shapeId="0" xr:uid="{6DCE7DFE-3035-4284-9CD1-766F10C8970F}">
+    <comment ref="B62" authorId="16" shapeId="0" xr:uid="{6DCE7DFE-3035-4284-9CD1-766F10C8970F}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="285">
   <si>
     <t>ScriptName</t>
   </si>
@@ -1004,9 +1004,6 @@
     <t>3020</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>NeoOps_AAF_TC057</t>
   </si>
   <si>
@@ -1040,9 +1037,6 @@
     <t>NeoOps_AAF_TC066</t>
   </si>
   <si>
-    <t>NeoOps_AAF_TC040</t>
-  </si>
-  <si>
     <t>NeoOps_MTCE_TC029</t>
   </si>
   <si>
@@ -1103,9 +1097,6 @@
     <t>03-Jun-2022</t>
   </si>
   <si>
-    <t>3078,655</t>
-  </si>
-  <si>
     <t>05-Jun-2022</t>
   </si>
   <si>
@@ -1173,6 +1164,24 @@
   </si>
   <si>
     <t>3418</t>
+  </si>
+  <si>
+    <t>NeoOps_AAF_TC040_1</t>
+  </si>
+  <si>
+    <t>3018,3000</t>
+  </si>
+  <si>
+    <t>08-Apr-2022</t>
+  </si>
+  <si>
+    <t>NeoOps_AAFNew_TC001</t>
+  </si>
+  <si>
+    <t>NeoOps_userrole_TC001</t>
+  </si>
+  <si>
+    <t>0035</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,21 +1365,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1855,14 +1856,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:XBY76"/>
+  <dimension ref="A1:XBY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +1988,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>219</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
@@ -2332,7 +2332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>7</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>198</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>16</v>
@@ -2504,7 +2504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>8</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>9</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>10</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>11</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>12</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>13</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>14</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>15</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>16</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>17</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>18</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>19</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:29 16301:16301" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29 16301:16301" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>20</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>204</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>16</v>
@@ -3717,7 +3717,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>85</v>
@@ -3735,7 +3735,7 @@
         <v>219</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>16</v>
@@ -3798,7 +3798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>108</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>109</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>110</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>219</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>16</v>
@@ -4228,7 +4228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>123</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:29 16301:16301" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29 16301:16301" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>124</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>188</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H32" s="23" t="s">
         <v>36</v>
@@ -4678,7 +4678,7 @@
         <v>188</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>36</v>
@@ -4744,7 +4744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>134</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>136</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>141</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>143</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>145</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>151</v>
       </c>
@@ -5126,10 +5126,10 @@
         <v>188</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
         <v>188</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>175</v>
@@ -5233,7 +5233,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>161</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>163</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>168</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>170</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>171</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>195</v>
       </c>
@@ -5403,10 +5403,10 @@
         <v>188</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I52" s="23" t="s">
         <v>16</v>
@@ -5469,12 +5469,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>197</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>85</v>
@@ -5489,17 +5489,17 @@
         <v>188</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="I53" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="J53" s="23" t="s">
-        <v>16</v>
-      </c>
       <c r="K53" s="23" t="s">
         <v>36</v>
       </c>
@@ -5555,18 +5555,21 @@
         <v>36</v>
       </c>
       <c r="AC53" s="23" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="AD53" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AE53" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="28" t="s">
-        <v>199</v>
+      <c r="B54" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>85</v>
@@ -5575,90 +5578,21 @@
         <v>46</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>188</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="U54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="X54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB54" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC54" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD54" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>85</v>
@@ -5673,16 +5607,16 @@
         <v>188</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H55" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I55" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J55" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="K55" s="23" t="s">
         <v>36</v>
@@ -5745,12 +5679,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>85</v>
@@ -5765,16 +5699,16 @@
         <v>188</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H56" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K56" s="23" t="s">
         <v>36</v>
@@ -5837,12 +5771,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>49</v>
+    <row r="57" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>85</v>
@@ -5851,92 +5785,92 @@
         <v>46</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>210</v>
+      <c r="G57" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC57" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD57" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="18" t="s">
+      <c r="J57" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC57" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD57" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D58" s="22" t="s">
@@ -5948,103 +5882,103 @@
       <c r="F58" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I58" s="4" t="s">
+      <c r="G58" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC58" s="4" t="s">
+      <c r="K58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC58" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="AD58" s="4" t="s">
+      <c r="AD58" s="23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>188</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>276</v>
+        <v>210</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>260</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>16</v>
@@ -6107,18 +6041,18 @@
         <v>36</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>85</v>
@@ -6127,92 +6061,92 @@
         <v>46</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>188</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>260</v>
+        <v>198</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD60" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD60" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="22" t="s">
@@ -6225,10 +6159,10 @@
         <v>188</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>257</v>
+        <v>198</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>16</v>
@@ -6236,73 +6170,73 @@
       <c r="J61" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="U61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="X61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD61" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD61" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>85</v>
@@ -6311,90 +6245,90 @@
         <v>46</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>188</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="I62" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="K62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="U62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="X62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD62" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD62" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>85</v>
@@ -6409,10 +6343,10 @@
         <v>188</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>16</v>
@@ -6420,7 +6354,7 @@
       <c r="J63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="23" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="23" t="s">
@@ -6481,14 +6415,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D64" s="22" t="s">
@@ -6500,17 +6434,17 @@
       <c r="F64" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G64" s="23" t="s">
-        <v>228</v>
+      <c r="G64" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="I64" s="23" t="s">
         <v>16</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="K64" s="23" t="s">
         <v>36</v>
@@ -6573,12 +6507,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>85</v>
@@ -6592,17 +6526,17 @@
       <c r="F65" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>232</v>
+      <c r="G65" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="I65" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>203</v>
+      <c r="J65" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="K65" s="23" t="s">
         <v>36</v>
@@ -6665,12 +6599,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>85</v>
@@ -6685,16 +6619,16 @@
         <v>188</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I66" s="23" t="s">
         <v>16</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K66" s="23" t="s">
         <v>36</v>
@@ -6751,18 +6685,18 @@
         <v>36</v>
       </c>
       <c r="AC66" s="23" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="AD66" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>238</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>85</v>
@@ -6777,84 +6711,84 @@
         <v>188</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H67" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC67" s="4" t="s">
-        <v>36</v>
+        <v>194</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC67" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="AD67" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:30" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>239</v>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>85</v>
@@ -6868,85 +6802,85 @@
       <c r="F68" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="U68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="X68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC68" s="23" t="s">
+      <c r="G68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC68" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AD68" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>243</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>85</v>
@@ -7033,12 +6967,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>246</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>85</v>
@@ -7125,104 +7059,107 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="18" t="s">
+    <row r="71" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="25" t="s">
+      <c r="E71" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>198</v>
+      <c r="G71" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD71" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
-        <v>253</v>
+        <v>36</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC71" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD71" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE71" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>85</v>
@@ -7237,16 +7174,16 @@
         <v>188</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J72" s="23" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="K72" s="23" t="s">
         <v>36</v>
@@ -7309,104 +7246,104 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>254</v>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="G73" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="H73" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="I73" s="23" t="s">
+      <c r="I73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="23" t="s">
+      <c r="J73" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="U73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="X73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC73" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD73" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>264</v>
+      <c r="K73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD73" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>85</v>
@@ -7420,20 +7357,20 @@
       <c r="F74" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="G74" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="I74" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>42</v>
+      <c r="J74" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="L74" s="23" t="s">
         <v>36</v>
@@ -7459,8 +7396,8 @@
       <c r="S74" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T74" s="30" t="s">
-        <v>31</v>
+      <c r="T74" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="U74" s="23" t="s">
         <v>36</v>
@@ -7493,14 +7430,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="18" t="s">
+    <row r="75" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="22" t="s">
@@ -7512,180 +7449,360 @@
       <c r="F75" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD75" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD75" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C76" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>270</v>
+      <c r="E76" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>188</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="I76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD76" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J76" s="4" t="s">
+      <c r="B77" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD77" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD76" s="4" t="s">
+      <c r="K78" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD78" s="4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD76" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD78" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D28 C38 C52:D57 C2:C29 D58:D76" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D28 C38 C2:C29 C55:D59 C52:D53 D60:D70 D72:D78" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Chrome,Firefox,Edge"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7781,58 +7898,63 @@
     <hyperlink ref="F22" r:id="rId89" xr:uid="{45923769-6036-4C93-BCBE-4D0631E2641F}"/>
     <hyperlink ref="D52" r:id="rId90" xr:uid="{9839F7FC-A6C1-4676-9868-427ADBC15587}"/>
     <hyperlink ref="F52" r:id="rId91" xr:uid="{02DC16D4-2D65-4CA8-9EC3-66B1413BCC6F}"/>
-    <hyperlink ref="D53" r:id="rId92" xr:uid="{2C209D0D-233B-4E11-B2DD-206ADDDADB40}"/>
-    <hyperlink ref="F53" r:id="rId93" xr:uid="{00D0EEE6-3EB5-4DF0-AECE-7EFEBB882B11}"/>
-    <hyperlink ref="D54" r:id="rId94" xr:uid="{260B74C3-5CA6-43B0-821F-D5B5C86C9B5A}"/>
-    <hyperlink ref="F54" r:id="rId95" xr:uid="{FAF65E48-476D-468B-92D0-2F10BFE2E7B6}"/>
-    <hyperlink ref="D55" r:id="rId96" xr:uid="{D5522026-0E65-45AC-9ACF-82929C1B4F45}"/>
-    <hyperlink ref="F55" r:id="rId97" xr:uid="{E9DC6DAC-2844-47E3-AAB0-AE0C24D899DE}"/>
-    <hyperlink ref="D56" r:id="rId98" xr:uid="{03E02A2D-7089-46C4-A561-9D3C38DDF3A2}"/>
-    <hyperlink ref="F56" r:id="rId99" xr:uid="{5539174E-3465-47ED-91FE-89527D67BE20}"/>
-    <hyperlink ref="D57" r:id="rId100" xr:uid="{8CC45AB3-6F07-4660-AC23-EB85C6EBF382}"/>
-    <hyperlink ref="F57" r:id="rId101" xr:uid="{10C5CB8A-22B5-427C-827B-2ABB4D12A7EF}"/>
-    <hyperlink ref="D58" r:id="rId102" xr:uid="{5E58D8DA-4E2A-4CB3-94AD-B93A421D73C6}"/>
-    <hyperlink ref="F58" r:id="rId103" xr:uid="{6FBAB643-EE0C-4C87-8FC8-38869BA67A00}"/>
-    <hyperlink ref="D59" r:id="rId104" xr:uid="{1663AB66-3AE7-4AF6-8BCE-A14C05B078CC}"/>
-    <hyperlink ref="F59" r:id="rId105" xr:uid="{63F1C206-3238-4509-820E-CFD45F139772}"/>
-    <hyperlink ref="D60" r:id="rId106" xr:uid="{0744D2FA-134C-47AA-A81E-7095FC361B6C}"/>
-    <hyperlink ref="F60" r:id="rId107" xr:uid="{C6CAD899-E6AD-447A-8B76-2BC33A04C17B}"/>
-    <hyperlink ref="D61" r:id="rId108" xr:uid="{9C454EEC-D430-4B69-ACE6-529EE2882BBE}"/>
-    <hyperlink ref="F61" r:id="rId109" xr:uid="{FBBCE785-E608-4DD4-9214-64BAF711544C}"/>
-    <hyperlink ref="D62" r:id="rId110" xr:uid="{FF08AA09-E70B-4315-AD44-D42015213555}"/>
-    <hyperlink ref="F62" r:id="rId111" xr:uid="{59D59A31-D575-4687-842B-F59DD5F284A7}"/>
-    <hyperlink ref="D63" r:id="rId112" xr:uid="{53484AC7-201D-44C2-9DDF-CDA9F75D6CF4}"/>
-    <hyperlink ref="F63" r:id="rId113" xr:uid="{46AA6244-1B8F-4B9D-9085-F26690463C1A}"/>
-    <hyperlink ref="D64" r:id="rId114" xr:uid="{C1903C67-D5BF-4101-B55A-81EBCAB045A2}"/>
-    <hyperlink ref="F64" r:id="rId115" xr:uid="{361080A6-2921-479D-ADB0-03462C9B700B}"/>
-    <hyperlink ref="D65" r:id="rId116" xr:uid="{E38CDEFF-187E-4AF2-8A94-4BBF63A8A428}"/>
-    <hyperlink ref="F65" r:id="rId117" xr:uid="{B7C278F8-61C9-4DDB-8076-C3C1393DDDA4}"/>
-    <hyperlink ref="D66" r:id="rId118" xr:uid="{96E321B2-B477-4D8A-B851-DB929139B0C7}"/>
-    <hyperlink ref="F66" r:id="rId119" xr:uid="{E50D8617-05DD-45E0-A188-9755660D66C6}"/>
-    <hyperlink ref="D67" r:id="rId120" xr:uid="{1B925B1F-A880-4B98-BEE9-87FC470F8257}"/>
-    <hyperlink ref="F67" r:id="rId121" xr:uid="{AE389039-07F6-4C91-8FD0-00E4F2D71224}"/>
-    <hyperlink ref="D68" r:id="rId122" xr:uid="{048E2509-7F19-4F8B-8313-424F13D9003B}"/>
-    <hyperlink ref="F68" r:id="rId123" xr:uid="{948AAD70-8D31-4715-BB31-F7637C804B28}"/>
-    <hyperlink ref="D69" r:id="rId124" xr:uid="{F5ABE91A-6F86-4BCB-A8A1-2EEA6BACB623}"/>
-    <hyperlink ref="F69" r:id="rId125" xr:uid="{13DD76E9-5771-4AD5-96AB-F481E3011C33}"/>
-    <hyperlink ref="D70" r:id="rId126" xr:uid="{45E0DB45-2344-4B8E-A3E5-542DE6B1710E}"/>
-    <hyperlink ref="F70" r:id="rId127" xr:uid="{CD862434-803D-47DD-80B4-3A4910DF5254}"/>
-    <hyperlink ref="D71" r:id="rId128" xr:uid="{1A046444-180A-40F5-A896-9D8E3C7667F9}"/>
-    <hyperlink ref="F71" r:id="rId129" xr:uid="{2014FC09-91E9-46B3-9F46-A25BA6B59AF9}"/>
-    <hyperlink ref="D72" r:id="rId130" xr:uid="{E163270D-AB9F-4EC5-BA6A-AB13655BFA54}"/>
-    <hyperlink ref="F72" r:id="rId131" xr:uid="{0B315D3F-2A64-42E4-B946-DECA20DE694B}"/>
-    <hyperlink ref="D73" r:id="rId132" xr:uid="{251BD7D8-AADF-4DA0-A425-046C93A91C80}"/>
-    <hyperlink ref="F73" r:id="rId133" xr:uid="{F1FDC8E5-FA67-4A4C-9E33-F8D415F2D3ED}"/>
-    <hyperlink ref="D74" r:id="rId134" xr:uid="{A84C92F4-D5D7-48D4-8E38-C429D3730B15}"/>
-    <hyperlink ref="F74" r:id="rId135" xr:uid="{8C2FF4C4-3105-4176-BFA9-AD34C3178189}"/>
-    <hyperlink ref="D75" r:id="rId136" xr:uid="{3B72D299-9DB3-4E59-AC19-9B7DAF9C1582}"/>
-    <hyperlink ref="F75" r:id="rId137" xr:uid="{4F1B8F6C-073E-4EE1-9F01-ACF3A70C9BF5}"/>
-    <hyperlink ref="D76" r:id="rId138" xr:uid="{6B948230-A714-420C-9071-18C36F1972F5}"/>
-    <hyperlink ref="F76" r:id="rId139" xr:uid="{751A2982-6559-4DEC-A721-B0B8BA2D196F}"/>
+    <hyperlink ref="D56" r:id="rId92" xr:uid="{260B74C3-5CA6-43B0-821F-D5B5C86C9B5A}"/>
+    <hyperlink ref="F56" r:id="rId93" xr:uid="{FAF65E48-476D-468B-92D0-2F10BFE2E7B6}"/>
+    <hyperlink ref="D57" r:id="rId94" xr:uid="{D5522026-0E65-45AC-9ACF-82929C1B4F45}"/>
+    <hyperlink ref="F57" r:id="rId95" xr:uid="{E9DC6DAC-2844-47E3-AAB0-AE0C24D899DE}"/>
+    <hyperlink ref="D58" r:id="rId96" xr:uid="{03E02A2D-7089-46C4-A561-9D3C38DDF3A2}"/>
+    <hyperlink ref="F58" r:id="rId97" xr:uid="{5539174E-3465-47ED-91FE-89527D67BE20}"/>
+    <hyperlink ref="D59" r:id="rId98" xr:uid="{8CC45AB3-6F07-4660-AC23-EB85C6EBF382}"/>
+    <hyperlink ref="F59" r:id="rId99" xr:uid="{10C5CB8A-22B5-427C-827B-2ABB4D12A7EF}"/>
+    <hyperlink ref="D60" r:id="rId100" xr:uid="{5E58D8DA-4E2A-4CB3-94AD-B93A421D73C6}"/>
+    <hyperlink ref="F60" r:id="rId101" xr:uid="{6FBAB643-EE0C-4C87-8FC8-38869BA67A00}"/>
+    <hyperlink ref="D61" r:id="rId102" xr:uid="{1663AB66-3AE7-4AF6-8BCE-A14C05B078CC}"/>
+    <hyperlink ref="F61" r:id="rId103" xr:uid="{63F1C206-3238-4509-820E-CFD45F139772}"/>
+    <hyperlink ref="D62" r:id="rId104" xr:uid="{0744D2FA-134C-47AA-A81E-7095FC361B6C}"/>
+    <hyperlink ref="F62" r:id="rId105" xr:uid="{C6CAD899-E6AD-447A-8B76-2BC33A04C17B}"/>
+    <hyperlink ref="D63" r:id="rId106" xr:uid="{9C454EEC-D430-4B69-ACE6-529EE2882BBE}"/>
+    <hyperlink ref="F63" r:id="rId107" xr:uid="{FBBCE785-E608-4DD4-9214-64BAF711544C}"/>
+    <hyperlink ref="D64" r:id="rId108" xr:uid="{FF08AA09-E70B-4315-AD44-D42015213555}"/>
+    <hyperlink ref="F64" r:id="rId109" xr:uid="{59D59A31-D575-4687-842B-F59DD5F284A7}"/>
+    <hyperlink ref="D65" r:id="rId110" xr:uid="{C1903C67-D5BF-4101-B55A-81EBCAB045A2}"/>
+    <hyperlink ref="F65" r:id="rId111" xr:uid="{361080A6-2921-479D-ADB0-03462C9B700B}"/>
+    <hyperlink ref="D66" r:id="rId112" xr:uid="{E38CDEFF-187E-4AF2-8A94-4BBF63A8A428}"/>
+    <hyperlink ref="F66" r:id="rId113" xr:uid="{B7C278F8-61C9-4DDB-8076-C3C1393DDDA4}"/>
+    <hyperlink ref="D67" r:id="rId114" xr:uid="{96E321B2-B477-4D8A-B851-DB929139B0C7}"/>
+    <hyperlink ref="F67" r:id="rId115" xr:uid="{E50D8617-05DD-45E0-A188-9755660D66C6}"/>
+    <hyperlink ref="D68" r:id="rId116" xr:uid="{1B925B1F-A880-4B98-BEE9-87FC470F8257}"/>
+    <hyperlink ref="F68" r:id="rId117" xr:uid="{AE389039-07F6-4C91-8FD0-00E4F2D71224}"/>
+    <hyperlink ref="D69" r:id="rId118" xr:uid="{048E2509-7F19-4F8B-8313-424F13D9003B}"/>
+    <hyperlink ref="F69" r:id="rId119" xr:uid="{948AAD70-8D31-4715-BB31-F7637C804B28}"/>
+    <hyperlink ref="D70" r:id="rId120" xr:uid="{F5ABE91A-6F86-4BCB-A8A1-2EEA6BACB623}"/>
+    <hyperlink ref="F70" r:id="rId121" xr:uid="{13DD76E9-5771-4AD5-96AB-F481E3011C33}"/>
+    <hyperlink ref="D72" r:id="rId122" xr:uid="{45E0DB45-2344-4B8E-A3E5-542DE6B1710E}"/>
+    <hyperlink ref="F72" r:id="rId123" xr:uid="{CD862434-803D-47DD-80B4-3A4910DF5254}"/>
+    <hyperlink ref="D73" r:id="rId124" xr:uid="{1A046444-180A-40F5-A896-9D8E3C7667F9}"/>
+    <hyperlink ref="F73" r:id="rId125" xr:uid="{2014FC09-91E9-46B3-9F46-A25BA6B59AF9}"/>
+    <hyperlink ref="D74" r:id="rId126" xr:uid="{E163270D-AB9F-4EC5-BA6A-AB13655BFA54}"/>
+    <hyperlink ref="F74" r:id="rId127" xr:uid="{0B315D3F-2A64-42E4-B946-DECA20DE694B}"/>
+    <hyperlink ref="D75" r:id="rId128" xr:uid="{251BD7D8-AADF-4DA0-A425-046C93A91C80}"/>
+    <hyperlink ref="F75" r:id="rId129" xr:uid="{F1FDC8E5-FA67-4A4C-9E33-F8D415F2D3ED}"/>
+    <hyperlink ref="D76" r:id="rId130" xr:uid="{A84C92F4-D5D7-48D4-8E38-C429D3730B15}"/>
+    <hyperlink ref="F76" r:id="rId131" xr:uid="{8C2FF4C4-3105-4176-BFA9-AD34C3178189}"/>
+    <hyperlink ref="D77" r:id="rId132" xr:uid="{3B72D299-9DB3-4E59-AC19-9B7DAF9C1582}"/>
+    <hyperlink ref="F77" r:id="rId133" xr:uid="{4F1B8F6C-073E-4EE1-9F01-ACF3A70C9BF5}"/>
+    <hyperlink ref="D78" r:id="rId134" xr:uid="{6B948230-A714-420C-9071-18C36F1972F5}"/>
+    <hyperlink ref="F78" r:id="rId135" xr:uid="{751A2982-6559-4DEC-A721-B0B8BA2D196F}"/>
+    <hyperlink ref="F55" r:id="rId136" xr:uid="{00D0EEE6-3EB5-4DF0-AECE-7EFEBB882B11}"/>
+    <hyperlink ref="D55" r:id="rId137" xr:uid="{2C209D0D-233B-4E11-B2DD-206ADDDADB40}"/>
+    <hyperlink ref="D53" r:id="rId138" xr:uid="{857F8453-671C-41DD-85DD-9E5E2EE2DD3C}"/>
+    <hyperlink ref="F53" r:id="rId139" xr:uid="{7A37423E-9763-44A9-9007-80FD1DA06E9D}"/>
+    <hyperlink ref="D54" r:id="rId140" xr:uid="{6503AF24-3B79-417C-BD18-46A0E9848EE5}"/>
+    <hyperlink ref="F54" r:id="rId141" xr:uid="{0B4C8A7E-504C-4969-8D91-CC601321BD54}"/>
+    <hyperlink ref="D71" r:id="rId142" xr:uid="{47B5B9CB-CB6A-4277-A81D-CE938AEBA494}"/>
+    <hyperlink ref="F71" r:id="rId143" xr:uid="{3BFFE1C6-58F5-4871-BAB4-95F4711EFD57}"/>
+    <hyperlink ref="AE71" r:id="rId144" xr:uid="{471CCBB3-9F1F-4C32-8740-17E639621EC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId140"/>
-  <legacyDrawing r:id="rId141"/>
+  <pageSetup orientation="portrait" r:id="rId145"/>
+  <legacyDrawing r:id="rId146"/>
 </worksheet>
 </file>
 
